--- a/Modelagens/Moda/Moda-Modelagem-Fisica.xlsx
+++ b/Modelagens/Moda/Moda-Modelagem-Fisica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49549303837\Desktop\DB\Senai-2Semestre-DB\Modelagens\Moda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7870A97-6128-4B92-949B-2598BCE2830F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6940812-E90D-4B9C-8E46-354DCC18556F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5955" xr2:uid="{262F9B23-946B-4F10-B777-9C2C22FBD5F9}"/>
   </bookViews>
@@ -497,7 +497,7 @@
   <dimension ref="B3:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +506,7 @@
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
